--- a/uploads/archivo_empleados.xlsx
+++ b/uploads/archivo_empleados.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerson\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="16455" windowHeight="7935"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>nelson</t>
   </si>
@@ -150,35 +155,68 @@
     <t>Tipo Documento</t>
   </si>
   <si>
+    <t>CEDULA DE CIUDADANIA</t>
+  </si>
+  <si>
+    <t>Gerencia</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>Area Producción</t>
+  </si>
+  <si>
+    <t>prue3</t>
+  </si>
+  <si>
+    <t>Red de ambulancias</t>
+  </si>
+  <si>
     <t>Compensar</t>
   </si>
   <si>
-    <t>prestación de servicios2</t>
-  </si>
-  <si>
-    <t>Red de ambulancias2</t>
-  </si>
-  <si>
-    <t>prue4</t>
-  </si>
-  <si>
-    <t>Cartagena2</t>
-  </si>
-  <si>
-    <t>Area Producción2</t>
-  </si>
-  <si>
-    <t>Gerencia2</t>
-  </si>
-  <si>
-    <t>CEDULA DE CIUDADANIA2</t>
+    <t>prestación de servicios</t>
+  </si>
+  <si>
+    <t>gerson</t>
+  </si>
+  <si>
+    <t>cll 30 30 30</t>
+  </si>
+  <si>
+    <t>javierbr12@hotmail.com</t>
+  </si>
+  <si>
+    <t>obra labor</t>
+  </si>
+  <si>
+    <t>Porvenir</t>
+  </si>
+  <si>
+    <t>PRUEBA GERSON</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
+  </si>
+  <si>
+    <t>medellin</t>
+  </si>
+  <si>
+    <t>centro de costo</t>
+  </si>
+  <si>
+    <t>desarrollador</t>
+  </si>
+  <si>
+    <t>YISED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +297,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -305,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,9 +383,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,6 +418,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -546,14 +594,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="26.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
@@ -576,14 +624,14 @@
     <col min="19" max="19" width="18.42578125" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
     <col min="21" max="21" width="17.140625" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" customWidth="1"/>
+    <col min="22" max="22" width="19" customWidth="1"/>
+    <col min="23" max="23" width="23.140625" customWidth="1"/>
     <col min="24" max="24" width="22.7109375" customWidth="1"/>
     <col min="25" max="25" width="20.28515625" customWidth="1"/>
     <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>15</v>
       </c>
@@ -597,7 +645,7 @@
       </c>
       <c r="X1" s="7"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -617,7 +665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -637,7 +685,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D4" s="5">
         <v>3</v>
       </c>
@@ -651,7 +699,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="D5" s="5">
         <v>4</v>
       </c>
@@ -665,7 +713,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -745,7 +793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1111</v>
       </c>
@@ -783,7 +831,7 @@
         <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N10" s="1">
         <v>41905</v>
@@ -792,28 +840,28 @@
         <v>42636</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="1">
         <v>36792</v>
       </c>
       <c r="R10" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T10" t="s">
         <v>46</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>47</v>
       </c>
-      <c r="T10" t="s">
-        <v>48</v>
-      </c>
-      <c r="U10" t="s">
-        <v>49</v>
-      </c>
       <c r="V10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="X10">
         <v>4</v>
@@ -823,6 +871,83 @@
       </c>
       <c r="Z10" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1033741569</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>33584</v>
+      </c>
+      <c r="F11">
+        <v>1.8</v>
+      </c>
+      <c r="G11">
+        <v>80</v>
+      </c>
+      <c r="H11">
+        <v>1234567</v>
+      </c>
+      <c r="I11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11">
+        <v>5674567</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="1">
+        <v>42005</v>
+      </c>
+      <c r="P11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>42005</v>
+      </c>
+      <c r="R11" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T11" t="s">
+        <v>59</v>
+      </c>
+      <c r="U11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V11" t="s">
+        <v>61</v>
+      </c>
+      <c r="W11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -833,31 +958,32 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K10" r:id="rId1"/>
+    <hyperlink ref="K11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/uploads/archivo_empleados.xlsx
+++ b/uploads/archivo_empleados.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerson\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STYVEN\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="16455" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>nelson</t>
   </si>
@@ -177,39 +177,6 @@
   </si>
   <si>
     <t>prestación de servicios</t>
-  </si>
-  <si>
-    <t>gerson</t>
-  </si>
-  <si>
-    <t>cll 30 30 30</t>
-  </si>
-  <si>
-    <t>javierbr12@hotmail.com</t>
-  </si>
-  <si>
-    <t>obra labor</t>
-  </si>
-  <si>
-    <t>Porvenir</t>
-  </si>
-  <si>
-    <t>PRUEBA GERSON</t>
-  </si>
-  <si>
-    <t>PRUEBA</t>
-  </si>
-  <si>
-    <t>medellin</t>
-  </si>
-  <si>
-    <t>centro de costo</t>
-  </si>
-  <si>
-    <t>desarrollador</t>
-  </si>
-  <si>
-    <t>YISED</t>
   </si>
 </sst>
 </file>
@@ -595,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,8 +591,8 @@
     <col min="19" max="19" width="18.42578125" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
     <col min="21" max="21" width="17.140625" customWidth="1"/>
-    <col min="22" max="22" width="19" customWidth="1"/>
-    <col min="23" max="23" width="23.140625" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" customWidth="1"/>
     <col min="24" max="24" width="22.7109375" customWidth="1"/>
     <col min="25" max="25" width="20.28515625" customWidth="1"/>
     <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -871,83 +838,6 @@
       </c>
       <c r="Z10" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1033741569</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>33584</v>
-      </c>
-      <c r="F11">
-        <v>1.8</v>
-      </c>
-      <c r="G11">
-        <v>80</v>
-      </c>
-      <c r="H11">
-        <v>1234567</v>
-      </c>
-      <c r="I11" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11">
-        <v>5674567</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" s="1">
-        <v>42005</v>
-      </c>
-      <c r="P11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>42005</v>
-      </c>
-      <c r="R11" t="s">
-        <v>57</v>
-      </c>
-      <c r="S11" t="s">
-        <v>58</v>
-      </c>
-      <c r="T11" t="s">
-        <v>59</v>
-      </c>
-      <c r="U11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V11" t="s">
-        <v>61</v>
-      </c>
-      <c r="W11" t="s">
-        <v>44</v>
-      </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -958,10 +848,9 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K10" r:id="rId1"/>
-    <hyperlink ref="K11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
